--- a/data/Notes.xlsx
+++ b/data/Notes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://docs.philips.com/personal/syamanthaka_balakrishnan_philips_com/Documents/Work/Projects/RD_Africa_Dashboards/KPI_dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320038642\PycharmProjects\CPCSDASH\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF6C6D-D58C-4E14-A2F3-5FC4A42CD82B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -228,114 +229,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-There has been remarkable improvement in the utlization of all services over the years, except for 2017 when there was a health workers' strike in Kenya. A doctors' strike started in December 2016 and ended in March 2017, while a nurses' strike started in June 2017 and ended in October 2017.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Number of children under the age of 1 year  immunized with DPT1 and DPT3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">There was a 179% increase in the number of children immunized with three doses of DPT in 2019 compared to 2014, with minimal loses to follow-up between DPT 1 and DPT 3 showing that there is continuity of care at the facility. There has been a consistent increase in the utilization of immunization services since 2014 except in 2017 during the health workers' strikes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Number of 1st and 4th ANC clients per year</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The gap between the number attending ANC1 and ANC4 has remained at approximately 40% except for 2017 when the gap was about 60%. Other data from the facility indicate that women initiate antenatal care late in pregnancy, with more than 50% of women attending ANC for the first time after the 24th week of pregnancy.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Number of clients seen in general outpatient department (GOPD), CWC and ANC
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>There has been a remarkable growth in the number of clients seen at GOPD, CWC and ANC since the launch of the CLC. Service utlization was however affected by the health workers strike in 2017.
-Utilization of GOPD services has increased over the years but there was a drop in utilization in 2016 due to unavailability of medicines and supplies in the facility and in 2017 due to the health workers strike. Variability in utilization of services at GOPD is driven largely by the availability of medicines and supplies at the facility level.
-Utilization of ANC services in 2017 was affected by the health workers strike, hence the drop in the number of women utilizing the service and the number of women completing 4 ANC visits. Lack of supplies especially laboratory supplies for conducting ANC profile tests,  affects demand for services. The facility is now able to mitigate the stock-outs with NHIF (Linda mama) funds.
-The immunization programme at the facility is supported through  the national  vertical immunization programme which ensures consistent supply of vaccines and related supplies to the facility. The utilization of immunization services is therefore not affected by stock-outs of drugs and supplies that are supplied through the County procurement mechanisms.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Quadruple Aim 1: ( Does the CLC improve the experience of the patient/ user?)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 The Dandu CLC was launched in July 2017 during the nurses' strike in kenya. However, unlike other facilities in Kenya utilization of services in 2017 increased despite the strike.There was a reduction in the number clients utilizing services in the facility in 2019 due to various reasons including; lack of medicines and supplies from July 2019 to January 2020, migration due to drought earlier in the year,  flooding in November and December 2019 and withdrawal of a Save The Children Project that was supporting community health services in January 2019.
 </t>
     </r>
@@ -1141,11 +1034,119 @@
   <si>
     <t xml:space="preserve"> The shared role of health facilities management in the Makueni Project improves adminstrative efficiency at the facility level. </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quadruple Aim 1: ( Does the CLC improve the experience of the patient/ user?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+There has been remarkable improvement in the utlization of all services over the years, except for 2017 when there was a health workers' strike in Kenya. A doctors' strike started in December 2016 and ended in March 2017, while a nurses' strike started in June 2017 and ended in October 2017.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number of children under the age of 1 year  immunized with DPT1 and DPT3
+The number of children immunized with three doses of DPT has increased over the years compared to 2014. There are  minimal loses to follow-up between DPT 1 and DPT 3 indicating  continuity of care at the facility. There has been a consistent increase in the utilization of immunization services since 2014 except in 2017 during the health workers' strikes. The demand for immunization services was affected by the COVID-19 pandemic in 2020.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number of 1st and 4th ANC clients per year</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The gap between the number attending ANC1 and ANC4 has remained at approximately 40% except for 2017 when the gap was about 60%. Other data from the facility indicate that women initiate antenatal care late in pregnancy, with more than 50% of women attending ANC for the first time after the 24th week of pregnancy.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Number of clients seen in general outpatient department (GOPD), CWC and ANC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There has been a remarkable growth in the number of clients seen at GOPD, CWC and ANC since the launch of the CLC. Service utlization was however affected by the health workers strike in 2017.
+Utilization of GOPD services has increased over the years but there was a drop in utilization in 2016 due to unavailability of medicines and supplies in the facility and in 2017 due to the health workers strike. Variability in utilization of services at GOPD is driven largely by the availability of medicines and supplies at the facility level.
+Utilization of ANC services in 2017 was affected by the health workers strike, hence the drop in the number of women utilizing the service and the number of women completing 4 ANC visits. Lack of supplies especially laboratory supplies for conducting ANC profile tests,  affects demand for services. The facility is now able to mitigate the stock-outs with NHIF (Linda mama) funds.
+The immunization programme at the facility is supported through  the national  vertical immunization programme which ensures consistent supply of vaccines and related supplies to the facility. The utilization of immunization services is therefore not affected by stock-outs of drugs and supplies that are supplied through the County procurement mechanisms.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1247,12 +1248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1268,6 +1263,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1548,23 +1549,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.26953125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="103.453125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="89.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="82.26953125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="98.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="103.42578125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="89.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="82.28515625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,114 +1582,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="368.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+    <row r="10" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="368.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:5" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1705,6 +1706,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e40374fb-a6cc-4854-989f-c1d94a7967ee" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003EC91BEF4702646B41E17AF45BB35FF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29432f8bc30f259fcde38a894bdf2070">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="653b6126-cf16-41d3-a849-e8d88f2a817f" xmlns:ns4="058175b2-6268-4433-afe1-43e26256299a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61c3c8c228cd3e6ce24ec56942caf9cb" ns3:_="" ns4:_="">
     <xsd:import namespace="653b6126-cf16-41d3-a849-e8d88f2a817f"/>
@@ -1921,20 +1936,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e40374fb-a6cc-4854-989f-c1d94a7967ee" ContentTypeId="0x01" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1942,6 +1943,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F687A2C-8AFF-49A2-B058-AB9555C8ABED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D07A1A60-2692-4A70-B481-EE90D65EACF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC0F206-ECCE-480F-9603-0EBAC93FEC01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1956,22 +1973,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D07A1A60-2692-4A70-B481-EE90D65EACF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F687A2C-8AFF-49A2-B058-AB9555C8ABED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/Notes.xlsx
+++ b/data/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320038642\PycharmProjects\CPCSDASH\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320038642\PycharmProjects\PHC_FEB2022_Version_Two\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF6C6D-D58C-4E14-A2F3-5FC4A42CD82B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9B3917-2750-4D8A-B813-57D62CC62595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1553,7 +1553,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1707,6 +1707,11 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e40374fb-a6cc-4854-989f-c1d94a7967ee" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -1714,12 +1719,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e40374fb-a6cc-4854-989f-c1d94a7967ee" ContentTypeId="0x01" PreviousValue="false"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003EC91BEF4702646B41E17AF45BB35FF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29432f8bc30f259fcde38a894bdf2070">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="653b6126-cf16-41d3-a849-e8d88f2a817f" xmlns:ns4="058175b2-6268-4433-afe1-43e26256299a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61c3c8c228cd3e6ce24ec56942caf9cb" ns3:_="" ns4:_="">
     <xsd:import namespace="653b6126-cf16-41d3-a849-e8d88f2a817f"/>
@@ -1936,13 +1942,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D07A1A60-2692-4A70-B481-EE90D65EACF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F687A2C-8AFF-49A2-B058-AB9555C8ABED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1950,15 +1958,24 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D07A1A60-2692-4A70-B481-EE90D65EACF3}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9239C3E-2404-4D8C-B2B6-D18E5CD4CEC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="058175b2-6268-4433-afe1-43e26256299a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="653b6126-cf16-41d3-a849-e8d88f2a817f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC0F206-ECCE-480F-9603-0EBAC93FEC01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1975,21 +1992,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9239C3E-2404-4D8C-B2B6-D18E5CD4CEC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="058175b2-6268-4433-afe1-43e26256299a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="653b6126-cf16-41d3-a849-e8d88f2a817f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>